--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2318.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2318.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.387333551643129</v>
+        <v>1.078393459320068</v>
       </c>
       <c r="B1">
-        <v>2.102962701830055</v>
+        <v>1.844270944595337</v>
       </c>
       <c r="C1">
-        <v>1.332856796709525</v>
+        <v>1.800463676452637</v>
       </c>
       <c r="D1">
-        <v>1.146474029285558</v>
+        <v>1.878517627716064</v>
       </c>
       <c r="E1">
-        <v>1.098741263965327</v>
+        <v>1.306295037269592</v>
       </c>
     </row>
   </sheetData>
